--- a/src/assets/api/projects.xlsx
+++ b/src/assets/api/projects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\src\assets\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode\github\포폴\portfolio\src\assets\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E7191-7205-41FF-A72D-EAF51DE52EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3322185E-D11F-405B-BB92-A83C0CD4C097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D8499FC-FF8F-402A-89EC-0DE251C7954A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,18 +329,9 @@
     <t>web</t>
   </si>
   <si>
-    <t>https://hajinkimm.github.io/web_TamraEv/dist/</t>
-  </si>
-  <si>
-    <t>https://github.com/HajinKimm/web_TamraEv</t>
-  </si>
-  <si>
     <t>Rweb</t>
   </si>
   <si>
-    <t>https://github.com/HajinKimm/Responsive_web_Desique</t>
-  </si>
-  <si>
     <t>풋볼 스쿼드메이커 홈페이지 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,31 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1. html5 + css3 + Vanilla Script
-v2. React + sass
-v3. Reacat_Context + sass
-v4. React_Redux + styled components</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서목록에 책 추가, 수정, 삭제
-도서장르순, 제목순 등으로 게시물 확인 가능
-localStorage를 이용한 로그인을 통해 도서목록 수정 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1. html5 + css + Vanilla script
-v2. React JS(vite) + sass
-v3. React JS(vite) + sass + node JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1. html5 + css3 + Vanilla Scrip
-v2. React + sass
-v3. React_Redux + styled components</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v1. React(vite) + styled components</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,76 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일정 추가, 삭제, 수정, 체크
-현재시간 확인, 배경이미지 변경
-localStorage / node JS를 이용한 데이터 유지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원의 이름, 직책, 사진 등의 간단 정보입력하여 명단 추가
-직원 체크 표시, 직원삭제 가능
-localStorage를 이용한 로그인기능 구현
-로그인을 통해서만 직원 관리 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영예정, 상영중, 상영종료에 따른 영화 정보 확인 가능
-영화 제목 검색을 통해 해당 영화 정보 롹인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 인물에 따른 데이터 출력
-작은이미지 클릭시 메인이미지에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 검색기록으로 재검색이 가능
-Pixabay API를 이용한 이미지 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물 검색, 원하는 카테고리의 게시물 출력, 게시물 좋아요
-axios를 사용하여 비동기처리
-react-route를 이용하여 제작
-swiper 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업페이지 : 메인, 경기일정, 게시판, 로그인, 회원가입
-게시글 작성, 내용수정, 삭제 구현
-search box, 옵션에 따른 데이터 출력
-paging, more button 구현
-체크박스 전체동의 구현
-swiper 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업페이지 : 여행패키지, 레저/잠수함, 공원/전시/박물관, Restaurant
-검색을 통해 게시물 확인 가능
-content more button 구현
-visual rolling, visual page button 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업페이지 : 여행패키지, 레저/잠수함, 공원/전시/박물관, Restaurant
-swiper 사용
-search box 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc / tablet / mobile 반응형 웹 UI 구현
-swiper 사용
-뷰포트(vw, vh) 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc / tablet / mobile 반응형 웹 UI 구현
-table/mobile 창에서 Menu 기능 구현 (JavaScripte)
-swiper 사용
-뷰포트(vw, vh) 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://hajinkimm.github.io/TP_FSM/dist/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +369,101 @@
   </si>
   <si>
     <t>https://github.com/HajinKimm/Responsive_Web_Sabon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rweb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hajinkimm.github.io/Responsive_Web_Salady/dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/HajinKimm/Responsive_Web_Salady</t>
+  </si>
+  <si>
+    <t>salady.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1. html5 + css3 + Vanilla Script\nv2. React + sass\nv3. Reacat_Context + sass\nv4. React_Redux + styled components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1. html5 + css + Vanilla script\nv2. React JS(vite) + sass\nv3. React JS(vite) + sass + node JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1. html5 + css3 + Vanilla Scrip\nv2. React + sass\nv3. React_Redux + styled components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서목록에 책 추가, 수정, 삭제\n도서장르순, 제목순 등으로 게시물 확인 가능\nlocalStorage를 이용한 로그인을 통해 도서목록 수정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 추가, 삭제, 수정, 체크\n현재시간 확인, 배경이미지 변\nlocalStorage / node JS를 이용한 데이터 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원의 이름, 직책, 사진 등의 간단 정보입력하여 명단 추가\n직원 체크 표시, 직원삭제 가능\nlocalStorage를 이용한 로그인기능 구현\n로그인을 통해서만 직원 관리 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영예정, 상영중, 상영종료에 따른 영화 정보 확인 가능\n영화 제목 검색을 통해 해당 영화 정보 롹인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 검색기록으로 재검색이 가능\nPixabay API를 이용한 이미지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 인물에 따른 데이터 출력\n작은이미지 클릭시 메인이미지에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업페이지 : 메인, 경기일정, 게시판, 로그인, 회원가입\n게시글 작성, 내용수정, 삭제 구현\nsearch box, 옵션에 따른 데이터 출력\npaging, more button 구현\n체크박스 전체동의 구현\nswiper 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 검색, 원하는 카테고리의 게시물 출력, 게시물 좋아요\naxios를 사용하여 비동기처리\nreact-route를 이용하여 제작\nswiper 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업페이지 : 여행패키지, 레저/잠수함, 공원/전시/박물관, Restaurant\n검색을 통해 게시물 확인 가능\ncontent more button 구현\nvisual rolling, visual page button 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업페이지 : 여행패키지, 레저/잠수함, 공원/전시/박물관,\nRestaurant\nswiper 사용\nsearch box 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc / tablet / mobile 반응형 웹 UI 구현\nreact slick / swiper 사용\n뷰포트(vw) 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc / tablet / mobile 반응형 웹 UI 구현\ntable/mobile 창에서 Menu 기능 구현 (JavaScripte)\nswiper 사용\n뷰포트(vw, vh) 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc / tablet / mobile 반응형 웹 UI 구현\nswiper 사용\n뷰포트(vw, vh) 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hajinkimm.github.io/Web_TamraEv/dist/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/HajinKimm/Web_TamraEv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/HajinKimm/Responsive_Web_Desique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FF27BD-F418-4054-B29A-9D7F8F92D23F}">
-  <dimension ref="A2:K14"/>
+  <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,7 +865,8 @@
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="64.5" customWidth="1"/>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.625" customWidth="1"/>
     <col min="9" max="9" width="38.75" customWidth="1"/>
@@ -916,7 +908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -942,10 +934,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>71</v>
@@ -977,16 +969,16 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1012,10 +1004,10 @@
         <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>71</v>
@@ -1047,10 +1039,10 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>71</v>
@@ -1082,10 +1074,10 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>71</v>
@@ -1117,16 +1109,16 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1134,16 +1126,16 @@
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -1152,16 +1144,16 @@
         <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1175,7 +1167,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -1184,19 +1176,19 @@
         <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1222,16 +1214,16 @@
         <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1257,53 +1249,53 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1312,13 +1304,13 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
@@ -1327,12 +1319,47 @@
         <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1345,9 +1372,9 @@
     <hyperlink ref="E8" r:id="rId4" xr:uid="{FE519AA7-2E14-4C32-AA3D-6ED116D2F1EB}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{7C395CA2-9366-48EC-81DF-F41C6D083152}"/>
     <hyperlink ref="E6" r:id="rId6" xr:uid="{D0C9B661-14C4-415A-BD14-1678F9862747}"/>
-    <hyperlink ref="F14" r:id="rId7" display="https://github.com/HajinKimm/Responsive_Wep_Desique" xr:uid="{22B1557B-14F5-4D6A-88B5-6C497D1211A8}"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://github.com/HajinKimm/Wep_TamraEv" xr:uid="{E9F9C045-D446-4C40-ABD9-8D0CCADECC8D}"/>
-    <hyperlink ref="E9" r:id="rId9" display="https://hajinkimm.github.io/Wep_TamraEv/dist/" xr:uid="{4A39175F-A19F-45C5-A518-FF37D7EE7DDF}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{22B1557B-14F5-4D6A-88B5-6C497D1211A8}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{E9F9C045-D446-4C40-ABD9-8D0CCADECC8D}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{4A39175F-A19F-45C5-A518-FF37D7EE7DDF}"/>
     <hyperlink ref="F4" r:id="rId10" xr:uid="{54E3F9A3-2FC8-4E79-A503-94D351975699}"/>
     <hyperlink ref="E4" r:id="rId11" xr:uid="{5FE82045-B036-41F2-8231-8F2C50BA7121}"/>
     <hyperlink ref="F7" r:id="rId12" xr:uid="{5D9CC0AF-2E45-4C6B-96EF-E9A26B481677}"/>
@@ -1360,10 +1387,11 @@
     <hyperlink ref="E12" r:id="rId19" xr:uid="{2EA31039-8C35-4985-9582-C8555989913B}"/>
     <hyperlink ref="E10" r:id="rId20" xr:uid="{48FEF447-E036-49D1-B9FB-1422AB7C6D60}"/>
     <hyperlink ref="E14" r:id="rId21" xr:uid="{60DD6451-49E5-4B29-9AB3-A28301F2814C}"/>
-    <hyperlink ref="E13" r:id="rId22" xr:uid="{68806A8E-950D-4617-BFB5-3D7E04BE6A22}"/>
-    <hyperlink ref="F13" r:id="rId23" xr:uid="{485AF236-A0A4-4BAE-9A57-203BA7FB7A94}"/>
+    <hyperlink ref="E15" r:id="rId22" xr:uid="{68806A8E-950D-4617-BFB5-3D7E04BE6A22}"/>
+    <hyperlink ref="F15" r:id="rId23" xr:uid="{485AF236-A0A4-4BAE-9A57-203BA7FB7A94}"/>
+    <hyperlink ref="E13" r:id="rId24" xr:uid="{60A49FA0-A8DF-465D-8D2A-30855984BB0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>